--- a/BalanceSheet/SSNC_bal.xlsx
+++ b/BalanceSheet/SSNC_bal.xlsx
@@ -1829,19 +1829,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-2600000.0</v>
+        <v>28000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-3600000.0</v>
+        <v>28000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-13500000.0</v>
+        <v>28000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-2400000.0</v>
+        <v>42000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>6400000.0</v>
+        <v>43000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>36900000.0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-33500000.0</v>
+        <v>891000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-39500000.0</v>
+        <v>924000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-31800000.0</v>
+        <v>957000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-51800000.0</v>
+        <v>989000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-32300000.0</v>
+        <v>1041000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>1088700000.0</v>
@@ -4822,7 +4822,7 @@
         <v>7256000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>7340000000.0</v>
+        <v>6992300000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>7467900000.0</v>
@@ -4949,7 +4949,7 @@
         <v>7638000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>7502000000.0</v>
+        <v>7154100000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>7632400000.0</v>
